--- a/excels/manual.xlsx
+++ b/excels/manual.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\36706\Workspaces\viatra-workspace\Structural-Analysis-of-Partial-Models-using-Graph-Metrics\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B392481-01DD-4523-B176-E892DD74A3FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C70289-1A5A-4EE8-A3AF-F52D692F3CC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9D0E90E0-6524-4963-A7D1-13008B857362}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="10" xr2:uid="{9D0E90E0-6524-4963-A7D1-13008B857362}"/>
   </bookViews>
   <sheets>
     <sheet name="step-1" sheetId="2" r:id="rId1"/>
@@ -21,10 +21,11 @@
     <sheet name="step-6" sheetId="7" r:id="rId6"/>
     <sheet name="step-7" sheetId="8" r:id="rId7"/>
     <sheet name="step-8" sheetId="9" r:id="rId8"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId9"/>
+    <sheet name="osszesitett" sheetId="10" r:id="rId9"/>
+    <sheet name="osszesitett-2" sheetId="12" r:id="rId10"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="5">
   <si>
     <t>Statechart</t>
   </si>
@@ -100,11 +101,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFEA526F"/>
+      <color rgb="FFFADF63"/>
+      <color rgb="FFC4A69D"/>
       <color rgb="FFE7E6F7"/>
-      <color rgb="FFC4A69D"/>
-      <color rgb="FFEA526F"/>
       <color rgb="FF20A39E"/>
-      <color rgb="FFFADF63"/>
       <color rgb="FFE70000"/>
     </mruColors>
   </colors>
@@ -432,6 +433,539 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Statechart</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="E7E6F7"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$3:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8DCF-4F7C-A295-D8CCB880C406}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Region</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="C4A69D"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$3:$J$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8DCF-4F7C-A295-D8CCB880C406}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Entry</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FADF63"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$3:$K$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8DCF-4F7C-A295-D8CCB880C406}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>State</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="EA526F"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$3:$L$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8DCF-4F7C-A295-D8CCB880C406}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Transition</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="20A39E"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$3:$M$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-8DCF-4F7C-A295-D8CCB880C406}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1649695280"/>
+        <c:axId val="1596985856"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1649695280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1596985856"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1596985856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1649695280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2596,7 +3130,572 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:areaChart>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Statechart</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="E7E6F7"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$3:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E2EA-4EAD-B79D-04FF375657B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Region</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="C4A69D"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$3:$J$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E2EA-4EAD-B79D-04FF375657B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Entry</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FADF63"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$3:$K$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E2EA-4EAD-B79D-04FF375657B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>State</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="EA526F"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$3:$L$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-E2EA-4EAD-B79D-04FF375657B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Transition</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="20A39E"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$3:$M$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-E2EA-4EAD-B79D-04FF375657B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1649695280"/>
+        <c:axId val="1596985856"/>
+      </c:areaChart>
+      <c:catAx>
+        <c:axId val="1649695280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1596985856"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1596985856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1649695280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2916,6 +4015,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -3419,8 +4558,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3624,22 +4763,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -3689,9 +4829,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:floor>
@@ -3744,8 +4889,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3809,6 +4954,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -3877,19 +5033,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -3922,7 +5079,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4425,7 +5582,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4928,7 +6085,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5431,7 +6588,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5934,7 +7091,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6437,7 +7594,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6940,14 +8097,1051 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{BA597C31-EDBF-4E80-B62E-9443D0B7E98D}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="88" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{C3609C8E-A5C4-4258-9C31-4DD419AD3EDE}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="88" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </chartsheet>
 </file>
 
@@ -6958,7 +9152,8 @@
     <sheetView zoomScale="88" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </chartsheet>
 </file>
 
@@ -6969,7 +9164,8 @@
     <sheetView zoomScale="88" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </chartsheet>
 </file>
 
@@ -6980,7 +9176,8 @@
     <sheetView zoomScale="88" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </chartsheet>
 </file>
 
@@ -6991,7 +9188,8 @@
     <sheetView zoomScale="88" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </chartsheet>
 </file>
 
@@ -7002,7 +9200,8 @@
     <sheetView zoomScale="88" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </chartsheet>
 </file>
 
@@ -7013,7 +9212,8 @@
     <sheetView zoomScale="88" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </chartsheet>
 </file>
 
@@ -7024,7 +9224,20 @@
     <sheetView zoomScale="88" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{86566CD2-A123-4618-8E90-836FB0D624FF}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="88" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </chartsheet>
 </file>
 
@@ -7032,7 +9245,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9298112" cy="6070315"/>
+    <xdr:ext cx="9291205" cy="6070023"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -7061,11 +9274,44 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9291205" cy="6070023"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC604D9A-49E4-467D-8C8B-3EE272767310}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9298112" cy="6070315"/>
+    <xdr:ext cx="9291205" cy="6070023"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -7098,7 +9344,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9298112" cy="6070315"/>
+    <xdr:ext cx="9291205" cy="6070023"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -7131,7 +9377,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9298112" cy="6070315"/>
+    <xdr:ext cx="9291205" cy="6070023"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -7164,7 +9410,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9298112" cy="6070315"/>
+    <xdr:ext cx="9291205" cy="6070023"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -7197,7 +9443,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9298112" cy="6070315"/>
+    <xdr:ext cx="9291205" cy="6070023"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -7230,7 +9476,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9298112" cy="6070315"/>
+    <xdr:ext cx="9291205" cy="6070023"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -7263,13 +9509,46 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9298112" cy="6070315"/>
+    <xdr:ext cx="9291205" cy="6070023"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6F3D83D-4AD4-469D-8770-E9E632FF399D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9291205" cy="6070023"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9828D087-E9F2-4738-8616-5809FC782C9E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7589,10 +9868,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50AC7CCA-3ED0-417E-BB5C-3093596C6378}">
-  <dimension ref="B2:F17"/>
+  <dimension ref="B2:M17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7600,7 +9879,7 @@
     <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -7616,8 +9895,23 @@
       <c r="F2" t="s">
         <v>4</v>
       </c>
+      <c r="I2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>1</v>
       </c>
@@ -7633,8 +9927,26 @@
       <c r="F3">
         <v>3</v>
       </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>2</v>
+      </c>
+      <c r="M3">
+        <v>3</v>
+      </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -7650,8 +9962,26 @@
       <c r="F4" t="s">
         <v>4</v>
       </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <v>3</v>
+      </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>1</v>
       </c>
@@ -7667,8 +9997,26 @@
       <c r="F5">
         <v>3</v>
       </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>2</v>
+      </c>
+      <c r="M5">
+        <v>2</v>
+      </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>0</v>
       </c>
@@ -7684,8 +10032,26 @@
       <c r="F6" t="s">
         <v>4</v>
       </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>2</v>
+      </c>
+      <c r="M6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>1</v>
       </c>
@@ -7701,8 +10067,26 @@
       <c r="F7">
         <v>2</v>
       </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>2</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>0</v>
       </c>
@@ -7718,8 +10102,26 @@
       <c r="F8" t="s">
         <v>4</v>
       </c>
+      <c r="H8">
+        <v>6</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>2</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>1</v>
       </c>
@@ -7735,8 +10137,26 @@
       <c r="F9">
         <v>2</v>
       </c>
+      <c r="H9">
+        <v>7</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>0</v>
       </c>
@@ -7752,8 +10172,26 @@
       <c r="F10" t="s">
         <v>4</v>
       </c>
+      <c r="H10">
+        <v>8</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>1</v>
       </c>
@@ -7770,7 +10208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>0</v>
       </c>
@@ -7787,7 +10225,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>1</v>
       </c>
@@ -7804,7 +10242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>0</v>
       </c>
@@ -7821,7 +10259,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>1</v>
       </c>
@@ -7838,7 +10276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>0</v>
       </c>

--- a/excels/manual.xlsx
+++ b/excels/manual.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\36706\Workspaces\viatra-workspace\Structural-Analysis-of-Partial-Models-using-Graph-Metrics\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C70289-1A5A-4EE8-A3AF-F52D692F3CC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0425D879-5E5F-432B-A631-0B462FB2048A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="10" xr2:uid="{9D0E90E0-6524-4963-A7D1-13008B857362}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="10" xr2:uid="{9D0E90E0-6524-4963-A7D1-13008B857362}"/>
   </bookViews>
   <sheets>
     <sheet name="step-1" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="6">
   <si>
     <t>Statechart</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>Transition</t>
+  </si>
+  <si>
+    <t>fokszám</t>
   </si>
 </sst>
 </file>
@@ -1524,7 +1527,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
+        <c:gapWidth val="0"/>
         <c:overlap val="-27"/>
         <c:axId val="1047281920"/>
         <c:axId val="620741168"/>
@@ -9868,10 +9871,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50AC7CCA-3ED0-417E-BB5C-3093596C6378}">
-  <dimension ref="B2:M17"/>
+  <dimension ref="B2:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10275,6 +10278,21 @@
       <c r="F15">
         <v>0</v>
       </c>
+      <c r="H15" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
@@ -10292,8 +10310,23 @@
       <c r="F16" t="s">
         <v>4</v>
       </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>2</v>
+      </c>
+      <c r="K16">
+        <v>4</v>
+      </c>
+      <c r="L16">
+        <v>2</v>
+      </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>1</v>
       </c>
@@ -10308,6 +10341,51 @@
       </c>
       <c r="F17">
         <v>0</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>3</v>
+      </c>
+      <c r="K17">
+        <v>4</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="H18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="H19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="H20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="H21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="H22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="H23">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/excels/manual.xlsx
+++ b/excels/manual.xlsx
@@ -8,22 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\36706\Workspaces\viatra-workspace\Structural-Analysis-of-Partial-Models-using-Graph-Metrics\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0425D879-5E5F-432B-A631-0B462FB2048A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5BAAB2D-6471-4C7C-B5D8-5A36976A5B93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="10" xr2:uid="{9D0E90E0-6524-4963-A7D1-13008B857362}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{9D0E90E0-6524-4963-A7D1-13008B857362}"/>
   </bookViews>
   <sheets>
-    <sheet name="step-1" sheetId="2" r:id="rId1"/>
-    <sheet name="step-2" sheetId="3" r:id="rId2"/>
-    <sheet name="step-3" sheetId="4" r:id="rId3"/>
-    <sheet name="step-4" sheetId="5" r:id="rId4"/>
-    <sheet name="step-5" sheetId="6" r:id="rId5"/>
-    <sheet name="step-6" sheetId="7" r:id="rId6"/>
-    <sheet name="step-7" sheetId="8" r:id="rId7"/>
-    <sheet name="step-8" sheetId="9" r:id="rId8"/>
-    <sheet name="osszesitett" sheetId="10" r:id="rId9"/>
-    <sheet name="osszesitett-2" sheetId="12" r:id="rId10"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId11"/>
+    <sheet name="osszesitett" sheetId="10" r:id="rId1"/>
+    <sheet name="osszesitett-2" sheetId="12" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="31">
   <si>
     <t>Statechart</t>
   </si>
@@ -58,15 +50,98 @@
     <t>Transition</t>
   </si>
   <si>
-    <t>fokszám</t>
+    <t>step 2 es 3 NAGYOBBA</t>
+  </si>
+  <si>
+    <t>kimeno fokszam</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>s1</t>
+  </si>
+  <si>
+    <t>s2</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t2</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>step-1</t>
+  </si>
+  <si>
+    <t>step-2</t>
+  </si>
+  <si>
+    <t>step-3</t>
+  </si>
+  <si>
+    <t>step-4</t>
+  </si>
+  <si>
+    <t>step-5</t>
+  </si>
+  <si>
+    <t>step-6</t>
+  </si>
+  <si>
+    <t>step-7</t>
+  </si>
+  <si>
+    <t>step-8</t>
+  </si>
+  <si>
+    <t>csucsok szama</t>
+  </si>
+  <si>
+    <t>deg=3</t>
+  </si>
+  <si>
+    <t>deg=2</t>
+  </si>
+  <si>
+    <t>deg=1</t>
+  </si>
+  <si>
+    <t>deg=0</t>
+  </si>
+  <si>
+    <t>szazalek</t>
+  </si>
+  <si>
+    <t>csucsszam</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -94,8 +169,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -140,147 +217,38 @@
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:areaChart>
+        <c:grouping val="percentStacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Statechart</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="E7E6F7"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="E7E6F7"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-8266-4F48-9BD6-A884ACAA0CAA}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="C4A69D"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-8266-4F48-9BD6-A884ACAA0CAA}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FADF63"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-8266-4F48-9BD6-A884ACAA0CAA}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="EA526F"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000004-8266-4F48-9BD6-A884ACAA0CAA}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="20A39E"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-8266-4F48-9BD6-A884ACAA0CAA}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$2:$F$2</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Statechart</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Region</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Entry</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>State</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Transition</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$F$3</c:f>
+              <c:f>Sheet1!$I$3:$I$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -291,17 +259,274 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8266-4F48-9BD6-A884ACAA0CAA}"/>
+              <c16:uniqueId val="{00000000-E2EA-4EAD-B79D-04FF375657B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Region</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="C4A69D"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$3:$J$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E2EA-4EAD-B79D-04FF375657B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Entry</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FADF63"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$3:$K$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E2EA-4EAD-B79D-04FF375657B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>State</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="EA526F"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$3:$L$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-E2EA-4EAD-B79D-04FF375657B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Transition</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="20A39E"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$3:$M$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-E2EA-4EAD-B79D-04FF375657B8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -313,19 +538,496 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="912207376"/>
-        <c:axId val="957360432"/>
-      </c:barChart>
+        <c:axId val="1649695280"/>
+        <c:axId val="1596985856"/>
+      </c:areaChart>
       <c:catAx>
-        <c:axId val="912207376"/>
+        <c:axId val="1649695280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1596985856"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1596985856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1649695280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$R$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>deg=3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$45:$Z$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4278-472F-ABBC-E4A37CA3B4FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$R$46</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>deg=2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$46:$Z$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.83333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4278-472F-ABBC-E4A37CA3B4FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$R$47</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>deg=1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$47:$Z$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.16666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4278-472F-ABBC-E4A37CA3B4FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$R$48</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>deg=0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$48:$Z$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4278-472F-ABBC-E4A37CA3B4FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1530060303"/>
+        <c:axId val="1540195183"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1530060303"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -362,7 +1064,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="957360432"/>
+        <c:crossAx val="1540195183"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -370,10 +1072,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="957360432"/>
+        <c:axId val="1540195183"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="3"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -422,7 +1124,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="912207376"/>
+        <c:crossAx val="1530060303"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -434,6 +1136,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -470,10 +1203,530 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$R$64</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>deg=3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$64:$Z$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F00C-455C-A3A1-23C5565BAC8B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$R$65</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>deg=2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$65:$Z$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F00C-455C-A3A1-23C5565BAC8B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$R$66</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>deg=1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$66:$Z$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F00C-455C-A3A1-23C5565BAC8B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$R$67</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>deg=0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$67:$Z$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F00C-455C-A3A1-23C5565BAC8B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1820640079"/>
+        <c:axId val="1527784607"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1820640079"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1527784607"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1527784607"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1820640079"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1006,7 +2259,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1032,7 +2285,7 @@
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="E7E6F7"/>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1040,6 +2293,25 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="E7E6F7"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-F04C-424A-9EA7-594F5EAEF979}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
             <c:invertIfNegative val="0"/>
@@ -1055,7 +2327,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-7F7B-4357-8407-A3A96FD5EC11}"/>
+                <c16:uniqueId val="{00000003-F04C-424A-9EA7-594F5EAEF979}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1074,7 +2346,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-7F7B-4357-8407-A3A96FD5EC11}"/>
+                <c16:uniqueId val="{00000005-F04C-424A-9EA7-594F5EAEF979}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1093,7 +2365,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-7F7B-4357-8407-A3A96FD5EC11}"/>
+                <c16:uniqueId val="{00000007-F04C-424A-9EA7-594F5EAEF979}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1112,13 +2384,13 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000004-7F7B-4357-8407-A3A96FD5EC11}"/>
+                <c16:uniqueId val="{00000009-F04C-424A-9EA7-594F5EAEF979}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$4:$F$4</c:f>
+              <c:f>Sheet1!$B$2:$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1141,7 +2413,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$5:$F$5</c:f>
+              <c:f>Sheet1!$B$3:$F$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1165,7 +2437,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7F7B-4357-8407-A3A96FD5EC11}"/>
+              <c16:uniqueId val="{0000000A-F04C-424A-9EA7-594F5EAEF979}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1177,13 +2449,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1043978976"/>
-        <c:axId val="957368336"/>
+        <c:gapWidth val="0"/>
+        <c:overlap val="7"/>
+        <c:axId val="912207376"/>
+        <c:axId val="957360432"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1043978976"/>
+        <c:axId val="912207376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1207,7 +2479,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -1226,7 +2498,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="957368336"/>
+        <c:crossAx val="957360432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1234,7 +2506,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="957368336"/>
+        <c:axId val="957360432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3"/>
@@ -1286,13 +2558,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1043978976"/>
+        <c:crossAx val="912207376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
+        <c:minorUnit val="1"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="0">
           <a:noFill/>
         </a:ln>
         <a:effectLst/>
@@ -1334,10 +2608,15 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1386,7 +2665,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-0194-41D5-8D07-ABCC2F8E6FAF}"/>
+                <c16:uniqueId val="{00000001-B51B-4962-B0AA-3B03E22C3699}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1405,7 +2684,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-0194-41D5-8D07-ABCC2F8E6FAF}"/>
+                <c16:uniqueId val="{00000003-B51B-4962-B0AA-3B03E22C3699}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1424,7 +2703,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-0194-41D5-8D07-ABCC2F8E6FAF}"/>
+                <c16:uniqueId val="{00000005-B51B-4962-B0AA-3B03E22C3699}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1443,7 +2722,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000004-0194-41D5-8D07-ABCC2F8E6FAF}"/>
+                <c16:uniqueId val="{00000007-B51B-4962-B0AA-3B03E22C3699}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1462,7 +2741,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-0194-41D5-8D07-ABCC2F8E6FAF}"/>
+                <c16:uniqueId val="{00000009-B51B-4962-B0AA-3B03E22C3699}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1515,7 +2794,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0194-41D5-8D07-ABCC2F8E6FAF}"/>
+              <c16:uniqueId val="{0000000A-B51B-4962-B0AA-3B03E22C3699}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1557,11 +2836,11 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1621,7 +2900,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1639,6 +2918,7 @@
         <c:crossAx val="1047281920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1684,10 +2964,15 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup paperSize="9" orientation="landscape" horizontalDpi="-3" verticalDpi="0"/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1736,7 +3021,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-0C3D-4457-A00F-8456301B0053}"/>
+                <c16:uniqueId val="{00000001-E525-4F10-B771-DE9D44B98337}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1755,7 +3040,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-0C3D-4457-A00F-8456301B0053}"/>
+                <c16:uniqueId val="{00000003-E525-4F10-B771-DE9D44B98337}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1774,7 +3059,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-0C3D-4457-A00F-8456301B0053}"/>
+                <c16:uniqueId val="{00000005-E525-4F10-B771-DE9D44B98337}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1827,7 +3112,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0C3D-4457-A00F-8456301B0053}"/>
+              <c16:uniqueId val="{00000006-E525-4F10-B771-DE9D44B98337}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1839,7 +3124,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
+        <c:gapWidth val="0"/>
         <c:overlap val="-27"/>
         <c:axId val="1050833936"/>
         <c:axId val="1049410272"/>
@@ -1869,11 +3154,11 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1933,7 +3218,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1951,6 +3236,7 @@
         <c:crossAx val="1050833936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1996,10 +3282,15 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup paperSize="9" orientation="landscape" horizontalDpi="-3" verticalDpi="0"/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2048,7 +3339,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-EC32-4897-8EC0-6F82E2B22345}"/>
+                <c16:uniqueId val="{00000001-97EC-4FAB-AE4D-15E8BF0271DC}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2067,7 +3358,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-EC32-4897-8EC0-6F82E2B22345}"/>
+                <c16:uniqueId val="{00000003-97EC-4FAB-AE4D-15E8BF0271DC}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2086,7 +3377,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-EC32-4897-8EC0-6F82E2B22345}"/>
+                <c16:uniqueId val="{00000005-97EC-4FAB-AE4D-15E8BF0271DC}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2139,7 +3430,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EC32-4897-8EC0-6F82E2B22345}"/>
+              <c16:uniqueId val="{00000006-97EC-4FAB-AE4D-15E8BF0271DC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2151,7 +3442,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
+        <c:gapWidth val="0"/>
         <c:overlap val="-27"/>
         <c:axId val="1039880096"/>
         <c:axId val="1049428992"/>
@@ -2181,11 +3472,11 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2245,7 +3536,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2263,6 +3554,7 @@
         <c:crossAx val="1039880096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2308,10 +3600,15 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup paperSize="9" orientation="landscape" horizontalDpi="-3" verticalDpi="0"/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2360,7 +3657,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-8AEC-4EEE-99AE-F656E94325C0}"/>
+                <c16:uniqueId val="{00000001-30E1-41FB-99C4-83211F478172}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2379,7 +3676,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-8AEC-4EEE-99AE-F656E94325C0}"/>
+                <c16:uniqueId val="{00000003-30E1-41FB-99C4-83211F478172}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2432,7 +3729,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8AEC-4EEE-99AE-F656E94325C0}"/>
+              <c16:uniqueId val="{00000004-30E1-41FB-99C4-83211F478172}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2444,7 +3741,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
+        <c:gapWidth val="0"/>
         <c:overlap val="-27"/>
         <c:axId val="951700432"/>
         <c:axId val="1049438144"/>
@@ -2474,11 +3771,11 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2538,7 +3835,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2556,6 +3853,7 @@
         <c:crossAx val="951700432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2601,10 +3899,15 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup paperSize="9" orientation="landscape" horizontalDpi="-3" verticalDpi="0"/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2653,7 +3956,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-6CA9-41EC-86C8-5A55ED192404}"/>
+                <c16:uniqueId val="{00000001-8836-420B-8487-B9533A40F7D2}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2706,7 +4009,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6CA9-41EC-86C8-5A55ED192404}"/>
+              <c16:uniqueId val="{00000002-8836-420B-8487-B9533A40F7D2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2718,7 +4021,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
+        <c:gapWidth val="0"/>
         <c:overlap val="-27"/>
         <c:axId val="1036173952"/>
         <c:axId val="957343376"/>
@@ -2748,11 +4051,11 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2812,7 +4115,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2830,6 +4133,7 @@
         <c:crossAx val="1036173952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2875,10 +4179,15 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup paperSize="9" orientation="landscape" horizontalDpi="-3" verticalDpi="0"/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2961,7 +4270,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9212-4EAC-8E98-840FDB938927}"/>
+              <c16:uniqueId val="{00000000-3461-4216-B075-30E1E3CE5E00}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2973,7 +4282,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
+        <c:gapWidth val="0"/>
         <c:overlap val="-27"/>
         <c:axId val="1036354720"/>
         <c:axId val="905522384"/>
@@ -3003,11 +4312,11 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3067,7 +4376,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3085,6 +4394,7 @@
         <c:crossAx val="1036354720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -3130,531 +4440,11 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:areaChart>
-        <c:grouping val="percentStacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$I$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Statechart</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="E7E6F7"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$I$3:$I$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E2EA-4EAD-B79D-04FF375657B8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$J$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Region</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="C4A69D"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$J$3:$J$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E2EA-4EAD-B79D-04FF375657B8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$K$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Entry</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FADF63"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$K$3:$K$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-E2EA-4EAD-B79D-04FF375657B8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$L$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>State</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="EA526F"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$L$3:$L$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-E2EA-4EAD-B79D-04FF375657B8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$M$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Transition</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="20A39E"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$M$3:$M$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-E2EA-4EAD-B79D-04FF375657B8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1649695280"/>
-        <c:axId val="1596985856"/>
-      </c:areaChart>
-      <c:catAx>
-        <c:axId val="1649695280"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1596985856"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1596985856"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1649695280"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup paperSize="9" orientation="landscape" horizontalDpi="-3" verticalDpi="0"/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -3699,6 +4489,46 @@
 </file>
 
 <file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4059,7 +4889,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4263,22 +5093,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -4328,9 +5159,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:floor>
@@ -4383,8 +5219,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4448,6 +5284,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -4516,19 +5363,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -4562,7 +5410,7 @@
 </file>
 
 <file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4670,6 +5518,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -4680,6 +5533,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -4711,6 +5569,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4766,23 +5627,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -4832,6 +5692,20 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -4842,25 +5716,6 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
   </cs:gridlineMajor>
   <cs:gridlineMinor>
     <cs:lnRef idx="0"/>
@@ -4892,8 +5747,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4957,17 +5812,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -5036,20 +5880,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -5082,8 +5925,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -5191,6 +6034,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -5201,6 +6049,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -5232,6 +6085,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5585,8 +6441,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -5790,22 +6646,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -5855,9 +6712,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:floor>
@@ -5910,8 +6772,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -5975,6 +6837,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -6043,19 +6916,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -6088,7 +6962,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6591,7 +7465,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7094,7 +7968,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7597,7 +8471,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8100,7 +8974,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8603,8 +9477,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -8808,23 +9682,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -8874,6 +9747,20 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -8884,25 +9771,6 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
   </cs:gridlineMajor>
   <cs:gridlineMinor>
     <cs:lnRef idx="0"/>
@@ -8934,8 +9802,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -8999,17 +9867,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -9078,20 +9935,522 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -9125,19 +10484,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{BA597C31-EDBF-4E80-B62E-9443D0B7E98D}">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView zoomScale="88" workbookViewId="0" zoomToFit="1"/>
-  </sheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</chartsheet>
-</file>
-
-<file path=xl/chartsheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{C3609C8E-A5C4-4258-9C31-4DD419AD3EDE}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{86566CD2-A123-4618-8E90-836FB0D624FF}">
   <sheetPr/>
   <sheetViews>
     <sheetView zoomScale="88" workbookViewId="0" zoomToFit="1"/>
@@ -9149,91 +10496,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{459AE40A-4762-484F-8AEC-90935DCECB15}">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView zoomScale="88" workbookViewId="0" zoomToFit="1"/>
-  </sheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</chartsheet>
-</file>
-
-<file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{4BA3493C-4FE8-45B5-AF75-CABF396A13D1}">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView zoomScale="88" workbookViewId="0" zoomToFit="1"/>
-  </sheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</chartsheet>
-</file>
-
-<file path=xl/chartsheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{AFB89065-1C31-4209-ACB8-B355413D50C0}">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView zoomScale="88" workbookViewId="0" zoomToFit="1"/>
-  </sheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</chartsheet>
-</file>
-
-<file path=xl/chartsheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{D6FD0590-98F9-431C-8A85-74ECA22FE164}">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView zoomScale="88" workbookViewId="0" zoomToFit="1"/>
-  </sheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</chartsheet>
-</file>
-
-<file path=xl/chartsheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{2439A06C-5C78-4D63-9A91-B8E63D88363E}">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView zoomScale="88" workbookViewId="0" zoomToFit="1"/>
-  </sheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</chartsheet>
-</file>
-
-<file path=xl/chartsheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{96CA4049-101B-43D0-8F94-5DB1FEC01F2E}">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView zoomScale="88" workbookViewId="0" zoomToFit="1"/>
-  </sheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</chartsheet>
-</file>
-
-<file path=xl/chartsheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{CAF2B128-F97B-452D-AB9A-A9DB50563A73}">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView zoomScale="88" workbookViewId="0" zoomToFit="1"/>
-  </sheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</chartsheet>
-</file>
-
-<file path=xl/chartsheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{86566CD2-A123-4618-8E90-836FB0D624FF}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{C3609C8E-A5C4-4258-9C31-4DD419AD3EDE}">
   <sheetPr/>
   <sheetViews>
     <sheetView zoomScale="88" workbookViewId="0" zoomToFit="1"/>
@@ -9254,7 +10517,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{312160BA-AA0E-4747-81E4-F061B1ABE34B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9828D087-E9F2-4738-8616-5809FC782C9E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9277,7 +10540,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
@@ -9310,23 +10573,31 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9291205" cy="6070023"/>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76020</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>119790</xdr:rowOff>
+    </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A48C8EA-7B61-4E69-895E-DE5D154B483A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{692CDE7B-482B-419C-9913-8856576D4284}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -9339,27 +10610,30 @@
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9291205" cy="6070023"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>7350</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>60690</xdr:rowOff>
+    </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="4" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7660863F-AD2A-4968-9944-17E3A3897E7E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7003A57F-5CAE-4401-9964-D0BFEC524B83}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -9367,32 +10641,35 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9291205" cy="6070023"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>80010</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>540750</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>45450</xdr:rowOff>
+    </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="5" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89164BDD-E9ED-4D03-ADA8-F19756DE7C7D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EC24ED8-87C6-4DBC-B3DB-D747EB53C2B7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -9400,32 +10677,35 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9291205" cy="6070023"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>370114</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>128450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>91714</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>93890</xdr:rowOff>
+    </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="6" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{963A2E85-9C5E-4952-AFBA-0F9FC0589E59}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C035E2EF-B58F-411E-A5FF-C7B0EAD9B079}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -9433,32 +10713,35 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9291205" cy="6070023"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>116476</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>491220</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>81916</xdr:rowOff>
+    </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="7" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EC74FF8-43A8-4466-8BA1-96336E2129ED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9161E64-EEC2-4199-9666-9A3E45B96A16}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -9466,32 +10749,35 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9291205" cy="6070023"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>412569</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>53337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>134169</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>18777</xdr:rowOff>
+    </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="8" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0ED751F3-9EED-4654-B799-2834E8480A33}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5452736E-362C-49ED-A258-CA7EC21C23DA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -9499,32 +10785,35 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9291205" cy="6070023"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>499655</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>40275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>221255</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>5715</xdr:rowOff>
+    </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="9" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6F3D83D-4AD4-469D-8770-E9E632FF399D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD1CFD07-E067-4E4E-93C0-0629B05E53AD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -9532,32 +10821,35 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9291205" cy="6070023"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>118533</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>423333</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="13" name="Chart 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9828D087-E9F2-4738-8616-5809FC782C9E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E10A6FA3-A9DF-49F8-917D-35283B16F1D0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -9565,12 +10857,48 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:absoluteAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>410633</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>105833</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="Chart 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD3E708C-9823-48BF-8DC2-415D1AA491D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -9871,18 +11199,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50AC7CCA-3ED0-417E-BB5C-3093596C6378}">
-  <dimension ref="B2:M23"/>
+  <dimension ref="B2:AA67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="U68" sqref="U68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.88671875" customWidth="1"/>
+    <col min="7" max="7" width="15.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -9914,7 +11244,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>1</v>
       </c>
@@ -9949,7 +11279,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -9984,7 +11314,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>1</v>
       </c>
@@ -10019,7 +11349,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>0</v>
       </c>
@@ -10054,7 +11384,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>1</v>
       </c>
@@ -10089,7 +11419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>0</v>
       </c>
@@ -10124,7 +11454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>1</v>
       </c>
@@ -10159,7 +11489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>0</v>
       </c>
@@ -10194,7 +11524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>1</v>
       </c>
@@ -10211,7 +11541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>0</v>
       </c>
@@ -10227,8 +11557,32 @@
       <c r="F12" t="s">
         <v>4</v>
       </c>
+      <c r="I12" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" t="s">
+        <v>8</v>
+      </c>
+      <c r="K12" t="s">
+        <v>9</v>
+      </c>
+      <c r="L12" t="s">
+        <v>10</v>
+      </c>
+      <c r="M12" t="s">
+        <v>11</v>
+      </c>
+      <c r="N12" t="s">
+        <v>12</v>
+      </c>
+      <c r="O12" t="s">
+        <v>13</v>
+      </c>
+      <c r="P12" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>1</v>
       </c>
@@ -10244,8 +11598,11 @@
       <c r="F13">
         <v>0</v>
       </c>
+      <c r="H13" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>0</v>
       </c>
@@ -10261,8 +11618,35 @@
       <c r="F14" t="s">
         <v>4</v>
       </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>3</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>3</v>
+      </c>
+      <c r="M14">
+        <v>2</v>
+      </c>
+      <c r="N14">
+        <v>2</v>
+      </c>
+      <c r="O14">
+        <v>2</v>
+      </c>
+      <c r="P14">
+        <v>2</v>
+      </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>1</v>
       </c>
@@ -10278,23 +11662,35 @@
       <c r="F15">
         <v>0</v>
       </c>
-      <c r="H15" t="s">
-        <v>5</v>
+      <c r="H15">
+        <v>2</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
+        <v>3</v>
+      </c>
+      <c r="K15">
         <v>1</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>2</v>
       </c>
-      <c r="L15">
-        <v>3</v>
+      <c r="M15">
+        <v>2</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>2</v>
+      </c>
+      <c r="P15">
+        <v>2</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>0</v>
       </c>
@@ -10311,22 +11707,34 @@
         <v>4</v>
       </c>
       <c r="H16">
+        <v>3</v>
+      </c>
+      <c r="I16">
         <v>1</v>
       </c>
-      <c r="I16">
+      <c r="J16">
+        <v>3</v>
+      </c>
+      <c r="K16">
         <v>0</v>
-      </c>
-      <c r="J16">
-        <v>2</v>
-      </c>
-      <c r="K16">
-        <v>4</v>
       </c>
       <c r="L16">
         <v>2</v>
       </c>
+      <c r="M16">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s">
+        <v>15</v>
+      </c>
+      <c r="O16">
+        <v>2</v>
+      </c>
+      <c r="P16">
+        <v>2</v>
+      </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>1</v>
       </c>
@@ -10343,52 +11751,1214 @@
         <v>0</v>
       </c>
       <c r="H17">
+        <v>4</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
         <v>2</v>
       </c>
-      <c r="I17">
+      <c r="K17" t="s">
+        <v>15</v>
+      </c>
+      <c r="L17">
+        <v>2</v>
+      </c>
+      <c r="M17">
+        <v>2</v>
+      </c>
+      <c r="N17" t="s">
+        <v>15</v>
+      </c>
+      <c r="O17">
+        <v>2</v>
+      </c>
+      <c r="P17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="H18">
+        <v>5</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>2</v>
+      </c>
+      <c r="K18" t="s">
+        <v>15</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O18">
+        <v>2</v>
+      </c>
+      <c r="P18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="H19">
+        <v>6</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>2</v>
+      </c>
+      <c r="K19" t="s">
+        <v>15</v>
+      </c>
+      <c r="L19">
         <v>0</v>
       </c>
-      <c r="J17">
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19" t="s">
+        <v>15</v>
+      </c>
+      <c r="O19" t="s">
+        <v>15</v>
+      </c>
+      <c r="P19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="E20" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20">
+        <v>7</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20" t="s">
+        <v>15</v>
+      </c>
+      <c r="L20" t="s">
+        <v>15</v>
+      </c>
+      <c r="M20" t="s">
+        <v>15</v>
+      </c>
+      <c r="N20" t="s">
+        <v>15</v>
+      </c>
+      <c r="O20" t="s">
+        <v>15</v>
+      </c>
+      <c r="P20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="H21">
+        <v>8</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K21" t="s">
+        <v>15</v>
+      </c>
+      <c r="L21" t="s">
+        <v>15</v>
+      </c>
+      <c r="M21" t="s">
+        <v>15</v>
+      </c>
+      <c r="N21" t="s">
+        <v>15</v>
+      </c>
+      <c r="O21" t="s">
+        <v>15</v>
+      </c>
+      <c r="P21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="H24" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24">
         <v>3</v>
       </c>
-      <c r="K17">
+      <c r="J24">
+        <v>2</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="G25" t="s">
+        <v>24</v>
+      </c>
+      <c r="H25">
+        <v>8</v>
+      </c>
+      <c r="I25">
+        <v>2</v>
+      </c>
+      <c r="J25">
         <v>4</v>
       </c>
-      <c r="L17">
+      <c r="K25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="I26">
         <v>1</v>
       </c>
+      <c r="J26">
+        <v>2</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="H18">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="H29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I29">
         <v>3</v>
       </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="H19">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="I30">
+        <v>2</v>
+      </c>
+      <c r="J30">
         <v>4</v>
       </c>
+      <c r="K30">
+        <v>4</v>
+      </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="H20">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>3</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="8:27" x14ac:dyDescent="0.3">
+      <c r="H34" t="s">
+        <v>18</v>
+      </c>
+      <c r="I34">
+        <v>3</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="8:27" x14ac:dyDescent="0.3">
+      <c r="I35">
+        <v>2</v>
+      </c>
+      <c r="J35">
+        <v>4</v>
+      </c>
+      <c r="K35">
+        <v>4</v>
+      </c>
+      <c r="S35" t="s">
+        <v>16</v>
+      </c>
+      <c r="T35" t="s">
+        <v>17</v>
+      </c>
+      <c r="U35" t="s">
+        <v>18</v>
+      </c>
+      <c r="V35" t="s">
+        <v>19</v>
+      </c>
+      <c r="W35" t="s">
+        <v>20</v>
+      </c>
+      <c r="X35" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="8:27" x14ac:dyDescent="0.3">
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="R36" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S36">
+        <v>2</v>
+      </c>
+      <c r="T36">
+        <v>1</v>
+      </c>
+      <c r="U36">
+        <v>1</v>
+      </c>
+      <c r="V36">
+        <v>0</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
+      </c>
+      <c r="Y36">
+        <v>0</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="8:27" x14ac:dyDescent="0.3">
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="R37" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="S37">
+        <v>4</v>
+      </c>
+      <c r="T37">
+        <v>4</v>
+      </c>
+      <c r="U37">
+        <v>4</v>
+      </c>
+      <c r="V37">
         <v>5</v>
       </c>
+      <c r="W37">
+        <v>2</v>
+      </c>
+      <c r="X37">
+        <v>1</v>
+      </c>
+      <c r="Y37">
+        <v>0</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="H21">
+    <row r="38" spans="8:27" x14ac:dyDescent="0.3">
+      <c r="R38" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S38">
+        <v>2</v>
+      </c>
+      <c r="T38">
+        <v>3</v>
+      </c>
+      <c r="U38">
+        <v>1</v>
+      </c>
+      <c r="V38">
+        <v>1</v>
+      </c>
+      <c r="W38">
+        <v>3</v>
+      </c>
+      <c r="X38">
+        <v>1</v>
+      </c>
+      <c r="Y38">
+        <v>1</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="8:27" x14ac:dyDescent="0.3">
+      <c r="H39" t="s">
+        <v>19</v>
+      </c>
+      <c r="I39">
+        <v>3</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="R39" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <v>1</v>
+      </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <v>2</v>
+      </c>
+      <c r="Y39">
+        <v>1</v>
+      </c>
+      <c r="Z39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="8:27" x14ac:dyDescent="0.3">
+      <c r="I40">
+        <v>2</v>
+      </c>
+      <c r="J40">
+        <v>5</v>
+      </c>
+      <c r="K40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="8:27" x14ac:dyDescent="0.3">
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="8:27" x14ac:dyDescent="0.3">
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="8:27" x14ac:dyDescent="0.3">
+      <c r="R43" t="s">
+        <v>30</v>
+      </c>
+      <c r="S43">
+        <v>8</v>
+      </c>
+      <c r="T43">
+        <v>8</v>
+      </c>
+      <c r="U43">
+        <v>7</v>
+      </c>
+      <c r="V43">
         <v>6</v>
       </c>
+      <c r="W43">
+        <v>5</v>
+      </c>
+      <c r="X43">
+        <v>4</v>
+      </c>
+      <c r="Y43">
+        <v>2</v>
+      </c>
+      <c r="Z43">
+        <v>1</v>
+      </c>
+      <c r="AA43">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="H22">
+    <row r="44" spans="8:27" x14ac:dyDescent="0.3">
+      <c r="S44">
+        <v>100</v>
+      </c>
+      <c r="T44">
+        <v>87.5</v>
+      </c>
+      <c r="U44">
+        <v>75</v>
+      </c>
+      <c r="V44">
+        <v>62.5</v>
+      </c>
+      <c r="W44">
+        <v>50</v>
+      </c>
+      <c r="X44">
+        <v>37.5</v>
+      </c>
+      <c r="Y44">
+        <v>25</v>
+      </c>
+      <c r="Z44">
+        <v>12.5</v>
+      </c>
+      <c r="AA44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="8:27" x14ac:dyDescent="0.3">
+      <c r="H45" t="s">
+        <v>20</v>
+      </c>
+      <c r="I45">
+        <v>3</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="R45" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S45">
+        <f>S36/S$43</f>
+        <v>0.25</v>
+      </c>
+      <c r="T45">
+        <f>T36/T$43</f>
+        <v>0.125</v>
+      </c>
+      <c r="U45">
+        <f>U36/U$43</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="V45">
+        <f>V36/V$43</f>
+        <v>0</v>
+      </c>
+      <c r="W45">
+        <f>W36/W$43</f>
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <f>X36/X$43</f>
+        <v>0</v>
+      </c>
+      <c r="Y45">
+        <f>Y36/Y$43</f>
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <f>Z36/Z$43</f>
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="8:27" x14ac:dyDescent="0.3">
+      <c r="I46">
+        <v>2</v>
+      </c>
+      <c r="J46">
+        <v>2</v>
+      </c>
+      <c r="K46">
+        <v>2</v>
+      </c>
+      <c r="R46" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="S46">
+        <f>S37/S$43</f>
+        <v>0.5</v>
+      </c>
+      <c r="T46">
+        <f>T37/T$43</f>
+        <v>0.5</v>
+      </c>
+      <c r="U46">
+        <f>U37/U$43</f>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="V46">
+        <f>V37/V$43</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="W46">
+        <f>W37/W$43</f>
+        <v>0.4</v>
+      </c>
+      <c r="X46">
+        <f>X37/X$43</f>
+        <v>0.25</v>
+      </c>
+      <c r="Y46">
+        <f>Y37/Y$43</f>
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <f>Z37/Z$43</f>
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="8:27" x14ac:dyDescent="0.3">
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>3</v>
+      </c>
+      <c r="K47">
+        <v>3</v>
+      </c>
+      <c r="R47" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S47">
+        <f>S38/S$43</f>
+        <v>0.25</v>
+      </c>
+      <c r="T47">
+        <f>T38/T$43</f>
+        <v>0.375</v>
+      </c>
+      <c r="U47">
+        <f>U38/U$43</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="V47">
+        <f>V38/V$43</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="W47">
+        <f>W38/W$43</f>
+        <v>0.6</v>
+      </c>
+      <c r="X47">
+        <f>X38/X$43</f>
+        <v>0.25</v>
+      </c>
+      <c r="Y47">
+        <f>Y38/Y$43</f>
+        <v>0.5</v>
+      </c>
+      <c r="Z47">
+        <f>Z38/Z$43</f>
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="8:27" x14ac:dyDescent="0.3">
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>3</v>
+      </c>
+      <c r="R48" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="S48">
+        <f>S39/S$43</f>
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <f>T39/T$43</f>
+        <v>0</v>
+      </c>
+      <c r="U48">
+        <f>U39/U$43</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="V48">
+        <f>V39/V$43</f>
+        <v>0</v>
+      </c>
+      <c r="W48">
+        <f>W39/W$43</f>
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <f>X39/X$43</f>
+        <v>0.5</v>
+      </c>
+      <c r="Y48">
+        <f>Y39/Y$43</f>
+        <v>0.5</v>
+      </c>
+      <c r="Z48">
+        <f>Z39/Z$43</f>
+        <v>1</v>
+      </c>
+      <c r="AA48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="8:27" x14ac:dyDescent="0.3">
+      <c r="Q49" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="50" spans="8:27" x14ac:dyDescent="0.3">
+      <c r="H50" t="s">
+        <v>21</v>
+      </c>
+      <c r="I50">
+        <v>3</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="8:27" x14ac:dyDescent="0.3">
+      <c r="I51">
+        <v>2</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+      <c r="K51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="8:27" x14ac:dyDescent="0.3">
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="8:27" x14ac:dyDescent="0.3">
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>2</v>
+      </c>
+      <c r="K53">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="8:27" x14ac:dyDescent="0.3">
+      <c r="H55" t="s">
+        <v>22</v>
+      </c>
+      <c r="I55">
+        <v>3</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="R55" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S55">
+        <v>2</v>
+      </c>
+      <c r="T55">
+        <v>1</v>
+      </c>
+      <c r="U55">
+        <v>1</v>
+      </c>
+      <c r="V55">
+        <v>0</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>0</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="8:27" x14ac:dyDescent="0.3">
+      <c r="I56">
+        <v>2</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="R56" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="S56">
+        <v>4</v>
+      </c>
+      <c r="T56">
+        <v>4</v>
+      </c>
+      <c r="U56">
+        <v>4</v>
+      </c>
+      <c r="V56">
+        <v>5</v>
+      </c>
+      <c r="W56">
+        <v>2</v>
+      </c>
+      <c r="X56">
+        <v>1</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="8:27" x14ac:dyDescent="0.3">
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+      <c r="R57" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S57">
+        <v>2</v>
+      </c>
+      <c r="T57">
+        <v>3</v>
+      </c>
+      <c r="U57">
+        <v>1</v>
+      </c>
+      <c r="V57">
+        <v>1</v>
+      </c>
+      <c r="W57">
+        <v>3</v>
+      </c>
+      <c r="X57">
+        <v>1</v>
+      </c>
+      <c r="Y57">
+        <v>1</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="8:27" x14ac:dyDescent="0.3">
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>1</v>
+      </c>
+      <c r="K58">
         <v>7</v>
       </c>
+      <c r="R58" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>0</v>
+      </c>
+      <c r="U58">
+        <v>2</v>
+      </c>
+      <c r="V58">
+        <v>2</v>
+      </c>
+      <c r="W58">
+        <v>3</v>
+      </c>
+      <c r="X58">
+        <v>6</v>
+      </c>
+      <c r="Y58">
+        <v>7</v>
+      </c>
+      <c r="Z58">
+        <v>8</v>
+      </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="H23">
+    <row r="60" spans="8:27" x14ac:dyDescent="0.3">
+      <c r="H60" t="s">
+        <v>23</v>
+      </c>
+      <c r="I60">
+        <v>3</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="8:27" x14ac:dyDescent="0.3">
+      <c r="I61">
+        <v>2</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="8:27" x14ac:dyDescent="0.3">
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="R62" t="s">
+        <v>30</v>
+      </c>
+      <c r="S62">
         <v>8</v>
+      </c>
+      <c r="T62">
+        <v>8</v>
+      </c>
+      <c r="U62">
+        <v>8</v>
+      </c>
+      <c r="V62">
+        <v>8</v>
+      </c>
+      <c r="W62">
+        <v>8</v>
+      </c>
+      <c r="X62">
+        <v>8</v>
+      </c>
+      <c r="Y62">
+        <v>8</v>
+      </c>
+      <c r="Z62">
+        <v>8</v>
+      </c>
+      <c r="AA62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="8:27" x14ac:dyDescent="0.3">
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="K63">
+        <v>8</v>
+      </c>
+      <c r="S63">
+        <v>100</v>
+      </c>
+      <c r="T63">
+        <v>87.5</v>
+      </c>
+      <c r="U63">
+        <v>75</v>
+      </c>
+      <c r="V63">
+        <v>62.5</v>
+      </c>
+      <c r="W63">
+        <v>50</v>
+      </c>
+      <c r="X63">
+        <v>37.5</v>
+      </c>
+      <c r="Y63">
+        <v>25</v>
+      </c>
+      <c r="Z63">
+        <v>12.5</v>
+      </c>
+      <c r="AA63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="8:27" x14ac:dyDescent="0.3">
+      <c r="R64" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S64">
+        <f>S55/S$62</f>
+        <v>0.25</v>
+      </c>
+      <c r="T64">
+        <f t="shared" ref="T64:AA64" si="0">T55/T$62</f>
+        <v>0.125</v>
+      </c>
+      <c r="U64">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+      <c r="V64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="18:27" x14ac:dyDescent="0.3">
+      <c r="R65" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="S65">
+        <f t="shared" ref="S65:AA65" si="1">S56/S$62</f>
+        <v>0.5</v>
+      </c>
+      <c r="T65">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="U65">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="V65">
+        <f t="shared" si="1"/>
+        <v>0.625</v>
+      </c>
+      <c r="W65">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="X65">
+        <f t="shared" si="1"/>
+        <v>0.125</v>
+      </c>
+      <c r="Y65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="18:27" x14ac:dyDescent="0.3">
+      <c r="R66" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S66">
+        <f t="shared" ref="S66:AA66" si="2">S57/S$62</f>
+        <v>0.25</v>
+      </c>
+      <c r="T66">
+        <f t="shared" si="2"/>
+        <v>0.375</v>
+      </c>
+      <c r="U66">
+        <f t="shared" si="2"/>
+        <v>0.125</v>
+      </c>
+      <c r="V66">
+        <f t="shared" si="2"/>
+        <v>0.125</v>
+      </c>
+      <c r="W66">
+        <f t="shared" si="2"/>
+        <v>0.375</v>
+      </c>
+      <c r="X66">
+        <f t="shared" si="2"/>
+        <v>0.125</v>
+      </c>
+      <c r="Y66">
+        <f t="shared" si="2"/>
+        <v>0.125</v>
+      </c>
+      <c r="Z66">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="18:27" x14ac:dyDescent="0.3">
+      <c r="R67" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="S67">
+        <f t="shared" ref="S67:AA67" si="3">S58/S$62</f>
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U67">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+      <c r="V67">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+      <c r="W67">
+        <f t="shared" si="3"/>
+        <v>0.375</v>
+      </c>
+      <c r="X67">
+        <f t="shared" si="3"/>
+        <v>0.75</v>
+      </c>
+      <c r="Y67">
+        <f t="shared" si="3"/>
+        <v>0.875</v>
+      </c>
+      <c r="Z67">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AA67">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/excels/manual.xlsx
+++ b/excels/manual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\36706\Workspaces\viatra-workspace\Structural-Analysis-of-Partial-Models-using-Graph-Metrics\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5BAAB2D-6471-4C7C-B5D8-5A36976A5B93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0600494F-11E2-4146-9C07-DF6A9A948F7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{9D0E90E0-6524-4963-A7D1-13008B857362}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="34">
   <si>
     <t>Statechart</t>
   </si>
@@ -127,6 +127,15 @@
   <si>
     <t>csucsszam</t>
   </si>
+  <si>
+    <t>deg=4</t>
+  </si>
+  <si>
+    <t>deg=5</t>
+  </si>
+  <si>
+    <t>csúcsszám</t>
+  </si>
 </sst>
 </file>
 
@@ -217,8 +226,8 @@
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
-      <c:areaChart>
-        <c:grouping val="percentStacked"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -235,15 +244,30 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="E7E6F7"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:val>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
             <c:numRef>
               <c:f>Sheet1!$I$3:$I$10</c:f>
               <c:numCache>
@@ -275,7 +299,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E2EA-4EAD-B79D-04FF375657B8}"/>
@@ -297,15 +322,30 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="C4A69D"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:val>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
             <c:numRef>
               <c:f>Sheet1!$J$3:$J$10</c:f>
               <c:numCache>
@@ -337,7 +377,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-E2EA-4EAD-B79D-04FF375657B8}"/>
@@ -359,15 +400,30 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FADF63"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:val>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
             <c:numRef>
               <c:f>Sheet1!$K$3:$K$10</c:f>
               <c:numCache>
@@ -399,7 +455,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-E2EA-4EAD-B79D-04FF375657B8}"/>
@@ -421,15 +478,30 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="EA526F"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:val>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
             <c:numRef>
               <c:f>Sheet1!$L$3:$L$10</c:f>
               <c:numCache>
@@ -461,7 +533,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-E2EA-4EAD-B79D-04FF375657B8}"/>
@@ -483,15 +556,30 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="20A39E"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:val>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
             <c:numRef>
               <c:f>Sheet1!$M$3:$M$10</c:f>
               <c:numCache>
@@ -523,7 +611,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-E2EA-4EAD-B79D-04FF375657B8}"/>
@@ -540,14 +629,16 @@
         </c:dLbls>
         <c:axId val="1649695280"/>
         <c:axId val="1596985856"/>
-      </c:areaChart>
-      <c:catAx>
+      </c:scatterChart>
+      <c:valAx>
         <c:axId val="1649695280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="8"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -586,15 +677,14 @@
         </c:txPr>
         <c:crossAx val="1596985856"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+        <c:minorUnit val="1"/>
+      </c:valAx>
       <c:valAx>
         <c:axId val="1596985856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="3"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -612,7 +702,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -646,6 +736,7 @@
         <c:crossAx val="1649695280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -726,492 +817,6 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$R$45</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>deg=3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$S$45:$Z$45</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.125</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.14285714285714285</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4278-472F-ABBC-E4A37CA3B4FA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$R$46</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>deg=2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$S$46:$Z$46</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.5714285714285714</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.83333333333333337</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4278-472F-ABBC-E4A37CA3B4FA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$R$47</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>deg=1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$S$47:$Z$47</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.375</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.14285714285714285</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.16666666666666666</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-4278-472F-ABBC-E4A37CA3B4FA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$R$48</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>deg=0</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$S$48:$Z$48</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.14285714285714285</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-4278-472F-ABBC-E4A37CA3B4FA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1530060303"/>
-        <c:axId val="1540195183"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1530060303"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1540195183"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1540195183"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1530060303"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1722,6 +1327,2111 @@
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$H$89:$H$94</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>deg=0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>deg=1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>deg=2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>deg=3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>deg=4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>deg=5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$89:$I$94</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-665E-4CF2-B679-8684294630E9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1799079439"/>
+        <c:axId val="1800376095"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1799079439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1200" b="1" i="0" baseline="0"/>
+                  <a:t>fokszám</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1800376095"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1800376095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1200" b="1" i="0" baseline="0"/>
+                  <a:t>darabszám</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1799079439"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup paperSize="9" orientation="landscape" horizontalDpi="-3" verticalDpi="0"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$H$103:$L$103</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Statechart</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Region</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Entry</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>State</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Transition</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$104:$L$104</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-665E-4CF2-B679-8684294630E9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1799079439"/>
+        <c:axId val="1800376095"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1799079439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>típus</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1800376095"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1800376095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>darabszám</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1799079439"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup paperSize="9" orientation="landscape" horizontalDpi="-3" verticalDpi="0"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="E7E6F7"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000018-9766-4C0D-9FFF-E862048F04B1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C4A69D"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000019-9766-4C0D-9FFF-E862048F04B1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FADF63"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001A-9766-4C0D-9FFF-E862048F04B1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="EA526F"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001B-9766-4C0D-9FFF-E862048F04B1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="20A39E"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001C-9766-4C0D-9FFF-E862048F04B1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$2:$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Statechart</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Region</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Entry</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>State</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Transition</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000017-9766-4C0D-9FFF-E862048F04B1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="E7E6F7"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-9766-4C0D-9FFF-E862048F04B1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C4A69D"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-9766-4C0D-9FFF-E862048F04B1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FADF63"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-9766-4C0D-9FFF-E862048F04B1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="EA526F"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-9766-4C0D-9FFF-E862048F04B1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="20A39E"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000015-9766-4C0D-9FFF-E862048F04B1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$2:$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Statechart</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Region</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Entry</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>State</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Transition</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000016-9766-4C0D-9FFF-E862048F04B1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="0"/>
+        <c:overlap val="7"/>
+        <c:axId val="912207376"/>
+        <c:axId val="957360432"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="912207376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1200" b="1" i="0" baseline="0"/>
+                  <a:t>típus</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="957360432"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="957360432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="3"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1200" b="1" i="0" baseline="0"/>
+                  <a:t>darabszám</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="912207376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
+        <c:minorUnit val="1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup paperSize="9" orientation="landscape" horizontalDpi="-3" verticalDpi="0"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$H$103:$L$103</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Statechart</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Region</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Entry</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>State</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Transition</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$104:$L$104</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5FC0-458B-8D91-C9AA3AB6BF75}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1799079439"/>
+        <c:axId val="1800376095"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1799079439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>típus</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1800376095"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1800376095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>darabszám</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1799079439"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup paperSize="9" orientation="landscape" horizontalDpi="-3" verticalDpi="0"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$F$119:$F$124</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>deg=0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>deg=1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>deg=2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>deg=3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>deg=4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>deg=5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$119:$G$124</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-665E-4CF2-B679-8684294630E9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1799079439"/>
+        <c:axId val="1800376095"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1799079439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>fokszám</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1800376095"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1800376095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>darabszám</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1799079439"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup paperSize="9" orientation="landscape" horizontalDpi="-3" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -2308,363 +4018,6 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-F04C-424A-9EA7-594F5EAEF979}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="C4A69D"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-F04C-424A-9EA7-594F5EAEF979}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FADF63"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-F04C-424A-9EA7-594F5EAEF979}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="EA526F"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-F04C-424A-9EA7-594F5EAEF979}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="20A39E"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-F04C-424A-9EA7-594F5EAEF979}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$2:$F$2</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Statechart</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Region</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Entry</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>State</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Transition</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$3:$F$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-F04C-424A-9EA7-594F5EAEF979}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="0"/>
-        <c:overlap val="7"/>
-        <c:axId val="912207376"/>
-        <c:axId val="957360432"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="912207376"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="957360432"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="957360432"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="3"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="912207376"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:majorUnit val="1"/>
-        <c:minorUnit val="1"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="E7E6F7"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-B51B-4962-B0AA-3B03E22C3699}"/>
               </c:ext>
             </c:extLst>
@@ -2836,7 +4189,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -2972,7 +4325,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3154,7 +4507,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -3290,7 +4643,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3472,7 +4825,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -3608,7 +4961,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3771,7 +5124,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -3907,7 +5260,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4051,7 +5404,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -4187,7 +5540,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4312,7 +5665,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -4448,6 +5801,492 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$R$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>deg=3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$45:$Z$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4278-472F-ABBC-E4A37CA3B4FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$R$46</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>deg=2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$46:$Z$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.83333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4278-472F-ABBC-E4A37CA3B4FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$R$47</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>deg=1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$47:$Z$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.16666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4278-472F-ABBC-E4A37CA3B4FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$R$48</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>deg=0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$48:$Z$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4278-472F-ABBC-E4A37CA3B4FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1530060303"/>
+        <c:axId val="1540195183"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1530060303"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1540195183"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1540195183"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1530060303"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -4529,6 +6368,126 @@
 </file>
 
 <file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6441,8 +8400,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -6550,6 +8509,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -6560,6 +8524,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -6591,6 +8560,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6646,23 +8618,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -6712,6 +8683,20 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -6722,25 +8707,6 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
   </cs:gridlineMajor>
   <cs:gridlineMinor>
     <cs:lnRef idx="0"/>
@@ -6772,8 +8738,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -6837,17 +8803,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -6916,20 +8871,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -6962,8 +8916,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -7071,6 +9025,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -7081,6 +9040,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -7112,6 +9076,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -7465,8 +9432,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -7574,6 +9541,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -7584,6 +9556,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -7615,6 +9592,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -7968,8 +9948,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -8173,22 +10153,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -8238,20 +10219,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -8262,6 +10229,25 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
   </cs:gridlineMajor>
   <cs:gridlineMinor>
     <cs:lnRef idx="0"/>
@@ -8293,8 +10279,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -8358,6 +10344,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -8426,19 +10423,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -8471,7 +10469,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8974,7 +10972,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9477,7 +11475,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9980,7 +11978,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10130,6 +12128,1528 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -10577,42 +14097,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>502920</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>148590</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>76020</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>119790</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{692CDE7B-482B-419C-9913-8856576D4284}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
       <xdr:row>3</xdr:row>
@@ -10641,7 +14125,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -10677,7 +14161,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -10713,7 +14197,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -10749,7 +14233,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -10785,7 +14269,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -10821,7 +14305,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -10857,7 +14341,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -10893,7 +14377,189 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>138113</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>252825</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>126413</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{782D3E67-BAC3-4F41-A553-CBCE0F012C62}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>413657</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>104095</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1032514</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>92395</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76F42CF8-395D-4549-8808-79C582EE5AF2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>370114</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>141515</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>268971</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>60601</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{519F3AA9-5F6E-4244-9902-8868CB73A961}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>52800</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>173357</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="17" name="Chart 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5EBB663-D722-4C9B-B1DA-846B2BB45FB9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>566057</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>9257</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>174772</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEB3EB94-0B31-497F-88D2-EA231CB1CAD3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -11197,12 +14863,870 @@
 </a:theme>
 </file>
 
+<file path=xl/theme/themeOverride1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="4472C4"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
+<file path=xl/theme/themeOverride2.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="4472C4"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
+<file path=xl/theme/themeOverride3.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="4472C4"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50AC7CCA-3ED0-417E-BB5C-3093596C6378}">
-  <dimension ref="B2:AA67"/>
+  <dimension ref="B2:AE124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="U68" sqref="U68"/>
+    <sheetView tabSelected="1" topLeftCell="Q77" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AF101" sqref="AF101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12303,35 +16827,35 @@
         <v>25</v>
       </c>
       <c r="S45">
-        <f>S36/S$43</f>
+        <f t="shared" ref="S45:Z48" si="0">S36/S$43</f>
         <v>0.25</v>
       </c>
       <c r="T45">
-        <f>T36/T$43</f>
+        <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
       <c r="U45">
-        <f>U36/U$43</f>
+        <f t="shared" si="0"/>
         <v>0.14285714285714285</v>
       </c>
       <c r="V45">
-        <f>V36/V$43</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="W45">
-        <f>W36/W$43</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="X45">
-        <f>X36/X$43</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Y45">
-        <f>Y36/Y$43</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Z45">
-        <f>Z36/Z$43</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AA45">
@@ -12352,35 +16876,35 @@
         <v>26</v>
       </c>
       <c r="S46">
-        <f>S37/S$43</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="T46">
-        <f>T37/T$43</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="U46">
-        <f>U37/U$43</f>
+        <f t="shared" si="0"/>
         <v>0.5714285714285714</v>
       </c>
       <c r="V46">
-        <f>V37/V$43</f>
+        <f t="shared" si="0"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="W46">
-        <f>W37/W$43</f>
+        <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
       <c r="X46">
-        <f>X37/X$43</f>
+        <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
       <c r="Y46">
-        <f>Y37/Y$43</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Z46">
-        <f>Z37/Z$43</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AA46">
@@ -12401,35 +16925,35 @@
         <v>27</v>
       </c>
       <c r="S47">
-        <f>S38/S$43</f>
+        <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
       <c r="T47">
-        <f>T38/T$43</f>
+        <f t="shared" si="0"/>
         <v>0.375</v>
       </c>
       <c r="U47">
-        <f>U38/U$43</f>
+        <f t="shared" si="0"/>
         <v>0.14285714285714285</v>
       </c>
       <c r="V47">
-        <f>V38/V$43</f>
+        <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="W47">
-        <f>W38/W$43</f>
+        <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
       <c r="X47">
-        <f>X38/X$43</f>
+        <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
       <c r="Y47">
-        <f>Y38/Y$43</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="Z47">
-        <f>Z38/Z$43</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AA47">
@@ -12450,35 +16974,35 @@
         <v>28</v>
       </c>
       <c r="S48">
-        <f>S39/S$43</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T48">
-        <f>T39/T$43</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U48">
-        <f>U39/U$43</f>
+        <f t="shared" si="0"/>
         <v>0.14285714285714285</v>
       </c>
       <c r="V48">
-        <f>V39/V$43</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="W48">
-        <f>W39/W$43</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="X48">
-        <f>X39/X$43</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="Y48">
-        <f>Y39/Y$43</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="Z48">
-        <f>Z39/Z$43</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AA48">
@@ -12805,31 +17329,31 @@
         <v>0.25</v>
       </c>
       <c r="T64">
-        <f t="shared" ref="T64:AA64" si="0">T55/T$62</f>
+        <f t="shared" ref="T64:Z64" si="1">T55/T$62</f>
         <v>0.125</v>
       </c>
       <c r="U64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
       <c r="V64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="W64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Y64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Z64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AA64">
@@ -12841,35 +17365,35 @@
         <v>26</v>
       </c>
       <c r="S65">
-        <f t="shared" ref="S65:AA65" si="1">S56/S$62</f>
+        <f t="shared" ref="S65:Z65" si="2">S56/S$62</f>
         <v>0.5</v>
       </c>
       <c r="T65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="U65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="V65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.625</v>
       </c>
       <c r="W65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
       <c r="X65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.125</v>
       </c>
       <c r="Y65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA65">
@@ -12881,35 +17405,35 @@
         <v>27</v>
       </c>
       <c r="S66">
-        <f t="shared" ref="S66:AA66" si="2">S57/S$62</f>
+        <f t="shared" ref="S66:Z66" si="3">S57/S$62</f>
         <v>0.25</v>
       </c>
       <c r="T66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.375</v>
       </c>
       <c r="U66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.125</v>
       </c>
       <c r="V66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.125</v>
       </c>
       <c r="W66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.375</v>
       </c>
       <c r="X66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.125</v>
       </c>
       <c r="Y66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.125</v>
       </c>
       <c r="Z66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AA66">
@@ -12921,44 +17445,641 @@
         <v>28</v>
       </c>
       <c r="S67">
-        <f t="shared" ref="S67:AA67" si="3">S58/S$62</f>
+        <f t="shared" ref="S67:Z67" si="4">S58/S$62</f>
         <v>0</v>
       </c>
       <c r="T67">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U67">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.25</v>
       </c>
       <c r="V67">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.25</v>
       </c>
       <c r="W67">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.375</v>
       </c>
       <c r="X67">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.75</v>
       </c>
       <c r="Y67">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.875</v>
       </c>
       <c r="Z67">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AA67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="8:31" x14ac:dyDescent="0.3">
+      <c r="Y81" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z81" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA81" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB81" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC81" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE81" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="82" spans="8:31" x14ac:dyDescent="0.3">
+      <c r="X82">
+        <v>1</v>
+      </c>
+      <c r="Y82">
+        <v>1</v>
+      </c>
+      <c r="Z82">
+        <v>1</v>
+      </c>
+      <c r="AA82">
+        <v>1</v>
+      </c>
+      <c r="AB82">
+        <v>2</v>
+      </c>
+      <c r="AC82">
+        <v>3</v>
+      </c>
+      <c r="AE82">
+        <f>SUM(Y82:AC82)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="8:31" x14ac:dyDescent="0.3">
+      <c r="X83">
+        <v>2</v>
+      </c>
+      <c r="Y83">
+        <v>1</v>
+      </c>
+      <c r="Z83">
+        <v>1</v>
+      </c>
+      <c r="AA83">
+        <v>1</v>
+      </c>
+      <c r="AB83">
+        <v>2</v>
+      </c>
+      <c r="AC83">
+        <v>3</v>
+      </c>
+      <c r="AE83">
+        <f t="shared" ref="AE83:AE89" si="5">SUM(Y83:AC83)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="8:31" x14ac:dyDescent="0.3">
+      <c r="X84">
+        <v>3</v>
+      </c>
+      <c r="Y84">
+        <v>1</v>
+      </c>
+      <c r="Z84">
+        <v>1</v>
+      </c>
+      <c r="AA84">
+        <v>1</v>
+      </c>
+      <c r="AB84">
+        <v>2</v>
+      </c>
+      <c r="AC84">
+        <v>2</v>
+      </c>
+      <c r="AE84">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="8:31" x14ac:dyDescent="0.3">
+      <c r="X85">
+        <v>4</v>
+      </c>
+      <c r="Y85">
+        <v>1</v>
+      </c>
+      <c r="Z85">
+        <v>1</v>
+      </c>
+      <c r="AA85">
+        <v>0</v>
+      </c>
+      <c r="AB85">
+        <v>2</v>
+      </c>
+      <c r="AC85">
+        <v>2</v>
+      </c>
+      <c r="AE85">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="8:31" x14ac:dyDescent="0.3">
+      <c r="X86">
+        <v>5</v>
+      </c>
+      <c r="Y86">
+        <v>1</v>
+      </c>
+      <c r="Z86">
+        <v>1</v>
+      </c>
+      <c r="AA86">
+        <v>0</v>
+      </c>
+      <c r="AB86">
+        <v>2</v>
+      </c>
+      <c r="AC86">
+        <v>1</v>
+      </c>
+      <c r="AE86">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="8:31" x14ac:dyDescent="0.3">
+      <c r="X87">
+        <v>6</v>
+      </c>
+      <c r="Y87">
+        <v>1</v>
+      </c>
+      <c r="Z87">
+        <v>1</v>
+      </c>
+      <c r="AA87">
+        <v>0</v>
+      </c>
+      <c r="AB87">
+        <v>2</v>
+      </c>
+      <c r="AC87">
+        <v>0</v>
+      </c>
+      <c r="AE87">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="8:31" x14ac:dyDescent="0.3">
+      <c r="X88">
+        <v>7</v>
+      </c>
+      <c r="Y88">
+        <v>1</v>
+      </c>
+      <c r="Z88">
+        <v>1</v>
+      </c>
+      <c r="AA88">
+        <v>0</v>
+      </c>
+      <c r="AB88">
+        <v>0</v>
+      </c>
+      <c r="AC88">
+        <v>0</v>
+      </c>
+      <c r="AE88">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="8:31" x14ac:dyDescent="0.3">
+      <c r="H89" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="X89">
+        <v>8</v>
+      </c>
+      <c r="Y89">
+        <v>1</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+      <c r="AA89">
+        <v>0</v>
+      </c>
+      <c r="AB89">
+        <v>0</v>
+      </c>
+      <c r="AC89">
+        <v>0</v>
+      </c>
+      <c r="AE89">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="8:31" x14ac:dyDescent="0.3">
+      <c r="H90" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="8:31" x14ac:dyDescent="0.3">
+      <c r="H91" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I91">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="8:31" x14ac:dyDescent="0.3">
+      <c r="H92" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="8:31" x14ac:dyDescent="0.3">
+      <c r="H93" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z93" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA93" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB93" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC93" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="8:31" x14ac:dyDescent="0.3">
+      <c r="H94" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="X94">
+        <v>1</v>
+      </c>
+      <c r="Y94">
+        <f>Y82/$AE82</f>
+        <v>0.125</v>
+      </c>
+      <c r="Z94">
+        <f t="shared" ref="Z94:AC94" si="6">Z82/$AE82</f>
+        <v>0.125</v>
+      </c>
+      <c r="AA94">
+        <f t="shared" si="6"/>
+        <v>0.125</v>
+      </c>
+      <c r="AB94">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+      <c r="AC94">
+        <f t="shared" si="6"/>
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="95" spans="8:31" x14ac:dyDescent="0.3">
+      <c r="X95">
+        <v>2</v>
+      </c>
+      <c r="Y95">
+        <f t="shared" ref="Y95:AC95" si="7">Y83/$AE83</f>
+        <v>0.125</v>
+      </c>
+      <c r="Z95">
+        <f t="shared" si="7"/>
+        <v>0.125</v>
+      </c>
+      <c r="AA95">
+        <f t="shared" si="7"/>
+        <v>0.125</v>
+      </c>
+      <c r="AB95">
+        <f t="shared" si="7"/>
+        <v>0.25</v>
+      </c>
+      <c r="AC95">
+        <f t="shared" si="7"/>
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="96" spans="8:31" x14ac:dyDescent="0.3">
+      <c r="X96">
+        <v>3</v>
+      </c>
+      <c r="Y96">
+        <f t="shared" ref="Y96:AC96" si="8">Y84/$AE84</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="Z96">
+        <f t="shared" si="8"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="AA96">
+        <f t="shared" si="8"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="AB96">
+        <f t="shared" si="8"/>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="AC96">
+        <f t="shared" si="8"/>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="97" spans="8:29" x14ac:dyDescent="0.3">
+      <c r="X97">
+        <v>4</v>
+      </c>
+      <c r="Y97">
+        <f t="shared" ref="Y97:AC97" si="9">Y85/$AE85</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="Z97">
+        <f t="shared" si="9"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="AA97">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AB97">
+        <f t="shared" si="9"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AC97">
+        <f t="shared" si="9"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="98" spans="8:29" x14ac:dyDescent="0.3">
+      <c r="X98">
+        <v>5</v>
+      </c>
+      <c r="Y98">
+        <f t="shared" ref="Y98:AC98" si="10">Y86/$AE86</f>
+        <v>0.2</v>
+      </c>
+      <c r="Z98">
+        <f t="shared" si="10"/>
+        <v>0.2</v>
+      </c>
+      <c r="AA98">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AB98">
+        <f t="shared" si="10"/>
+        <v>0.4</v>
+      </c>
+      <c r="AC98">
+        <f t="shared" si="10"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="99" spans="8:29" x14ac:dyDescent="0.3">
+      <c r="X99">
+        <v>6</v>
+      </c>
+      <c r="Y99">
+        <f t="shared" ref="Y99:AC99" si="11">Y87/$AE87</f>
+        <v>0.25</v>
+      </c>
+      <c r="Z99">
+        <f t="shared" si="11"/>
+        <v>0.25</v>
+      </c>
+      <c r="AA99">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AB99">
+        <f t="shared" si="11"/>
+        <v>0.5</v>
+      </c>
+      <c r="AC99">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="8:29" x14ac:dyDescent="0.3">
+      <c r="X100">
+        <v>7</v>
+      </c>
+      <c r="Y100">
+        <f t="shared" ref="Y100:AC100" si="12">Y88/$AE88</f>
+        <v>0.5</v>
+      </c>
+      <c r="Z100">
+        <f t="shared" si="12"/>
+        <v>0.5</v>
+      </c>
+      <c r="AA100">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AB100">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AC100">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="8:29" x14ac:dyDescent="0.3">
+      <c r="X101">
+        <v>8</v>
+      </c>
+      <c r="Y101">
+        <f t="shared" ref="Y101:AC101" si="13">Y89/$AE89</f>
+        <v>1</v>
+      </c>
+      <c r="Z101">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA101">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AB101">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AC101">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="8:29" x14ac:dyDescent="0.3">
+      <c r="H103" t="s">
+        <v>0</v>
+      </c>
+      <c r="I103" t="s">
+        <v>1</v>
+      </c>
+      <c r="J103" t="s">
+        <v>2</v>
+      </c>
+      <c r="K103" t="s">
+        <v>3</v>
+      </c>
+      <c r="L103" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="8:29" x14ac:dyDescent="0.3">
+      <c r="H104">
+        <v>1</v>
+      </c>
+      <c r="I104">
+        <v>1</v>
+      </c>
+      <c r="J104">
+        <v>1</v>
+      </c>
+      <c r="K104">
+        <v>2</v>
+      </c>
+      <c r="L104">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="E118" t="s">
+        <v>16</v>
+      </c>
+      <c r="G118" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="119" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D119" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D120" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E120">
+        <v>2</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G120">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D121" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E121">
+        <v>4</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G121">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D122" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E122">
+        <v>2</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D123" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D124" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G124">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="95" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/excels/manual.xlsx
+++ b/excels/manual.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\36706\Workspaces\viatra-workspace\Structural-Analysis-of-Partial-Models-using-Graph-Metrics\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0600494F-11E2-4146-9C07-DF6A9A948F7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F677290-13F4-47B8-A52D-506EFF53AC43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{9D0E90E0-6524-4963-A7D1-13008B857362}"/>
   </bookViews>
   <sheets>
     <sheet name="osszesitett" sheetId="10" r:id="rId1"/>
     <sheet name="osszesitett-2" sheetId="12" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Chart2" sheetId="14" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -190,12 +191,12 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFADF63"/>
+      <color rgb="FF20A39E"/>
       <color rgb="FFEA526F"/>
-      <color rgb="FFFADF63"/>
+      <color rgb="FFE70000"/>
       <color rgb="FFC4A69D"/>
       <color rgb="FFE7E6F7"/>
-      <color rgb="FF20A39E"/>
-      <color rgb="FFE70000"/>
     </mruColors>
   </colors>
   <extLst>
@@ -830,6 +831,492 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$R$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>deg=3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$45:$Z$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4278-472F-ABBC-E4A37CA3B4FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$R$46</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>deg=2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$46:$Z$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.83333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4278-472F-ABBC-E4A37CA3B4FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$R$47</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>deg=1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$47:$Z$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.16666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4278-472F-ABBC-E4A37CA3B4FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$R$48</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>deg=0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$48:$Z$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4278-472F-ABBC-E4A37CA3B4FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1530060303"/>
+        <c:axId val="1540195183"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1530060303"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1540195183"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1540195183"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1530060303"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
     <c:title>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1331,7 +1818,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1722,7 +2209,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2107,7 +2594,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2665,7 +3152,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3050,7 +3537,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3986,6 +4473,906 @@
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Y$93</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Statechart</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="44450" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="E7E6F7"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="E7E6F7"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="E7E6F7"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$X$94:$X$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2857142857142857</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.42857142857142855</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7142857142857143</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.8571428571428571</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$Y$94:$Y$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.16666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9E95-4B14-8A5F-272DBFB7EB60}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Z$93</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Region</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="C4A69D"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C4A69D"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="C4A69D"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$X$94:$X$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2857142857142857</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.42857142857142855</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7142857142857143</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.8571428571428571</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$Z$94:$Z$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.16666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9E95-4B14-8A5F-272DBFB7EB60}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AA$93</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Entry</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FADF63"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FADF63"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FADF63"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$X$94:$X$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2857142857142857</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.42857142857142855</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7142857142857143</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.8571428571428571</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AA$94:$AA$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9E95-4B14-8A5F-272DBFB7EB60}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AB$93</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>State</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="E70000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="EA526F"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="E70000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$X$94:$X$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2857142857142857</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.42857142857142855</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7142857142857143</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.8571428571428571</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AB$94:$AB$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2857142857142857</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9E95-4B14-8A5F-272DBFB7EB60}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AC$93</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Transition</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="20A39E"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="20A39E"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="20A39E"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$X$94:$X$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2857142857142857</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.42857142857142855</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7142857142857143</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.8571428571428571</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AC$94:$AC$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2857142857142857</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-9E95-4B14-8A5F-272DBFB7EB60}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="445034527"/>
+        <c:axId val="445298639"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="445034527"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1200" b="1" i="0" baseline="0"/>
+                  <a:t>lebontás százalékos aránya</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="445298639"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="445298639"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1200" b="1" i="0" baseline="0"/>
+                  <a:t>típus százalékos aránya</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="445034527"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -4325,7 +5712,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4643,7 +6030,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4961,7 +6348,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5260,7 +6647,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5540,7 +6927,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5797,492 +7184,6 @@
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup paperSize="9" orientation="landscape" horizontalDpi="-3" verticalDpi="0"/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$R$45</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>deg=3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$S$45:$Z$45</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.125</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.14285714285714285</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4278-472F-ABBC-E4A37CA3B4FA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$R$46</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>deg=2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$S$46:$Z$46</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.5714285714285714</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.83333333333333337</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4278-472F-ABBC-E4A37CA3B4FA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$R$47</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>deg=1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$S$47:$Z$47</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.375</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.14285714285714285</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.16666666666666666</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-4278-472F-ABBC-E4A37CA3B4FA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$R$48</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>deg=0</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$S$48:$Z$48</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.14285714285714285</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-4278-472F-ABBC-E4A37CA3B4FA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1530060303"/>
-        <c:axId val="1540195183"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1530060303"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1540195183"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1540195183"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1530060303"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -6488,6 +7389,46 @@
 </file>
 
 <file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -9948,8 +10889,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -10057,6 +10998,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -10067,6 +11013,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -10098,6 +11049,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -10153,23 +11107,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -10219,6 +11172,20 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -10229,25 +11196,6 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
   </cs:gridlineMajor>
   <cs:gridlineMinor>
     <cs:lnRef idx="0"/>
@@ -10279,8 +11227,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -10344,17 +11292,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -10423,20 +11360,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -10469,8 +11405,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -10674,22 +11610,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -10739,20 +11676,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -10763,6 +11686,25 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
   </cs:gridlineMajor>
   <cs:gridlineMinor>
     <cs:lnRef idx="0"/>
@@ -10794,8 +11736,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -10859,6 +11801,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -10927,19 +11880,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -10972,8 +11926,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -11000,8 +11954,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -11102,7 +12056,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -11134,10 +12088,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -11177,22 +12131,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -11297,8 +12252,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -11430,19 +12385,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -11456,6 +12412,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -11475,7 +12442,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -11978,7 +12945,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -12481,7 +13448,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -12984,7 +13951,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -13487,8 +14454,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -13596,11 +14563,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -13611,11 +14573,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -13647,9 +14604,509 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="phClr"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
       </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -14020,6 +15477,18 @@
   <sheetPr/>
   <sheetViews>
     <sheetView zoomScale="88" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{E1E63B18-87EF-4852-BEB1-F2ECF0E6015E}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -14094,6 +15563,39 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="8659"/>
+    <xdr:ext cx="9291205" cy="6061364"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E60E3768-36F6-4F65-ABC2-DE09E94A67A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -14458,13 +15960,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>370114</xdr:colOff>
+      <xdr:colOff>402771</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>141515</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>268971</xdr:colOff>
+      <xdr:colOff>301628</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>60601</xdr:rowOff>
     </xdr:to>
@@ -15725,8 +17227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50AC7CCA-3ED0-417E-BB5C-3093596C6378}">
   <dimension ref="B2:AE124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q77" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AF101" sqref="AF101"/>
+    <sheetView topLeftCell="AC42" zoomScaleNormal="100" zoomScaleSheetLayoutView="50" workbookViewId="0">
+      <selection activeCell="AN64" sqref="AN64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17481,6 +18983,9 @@
       </c>
     </row>
     <row r="81" spans="8:31" x14ac:dyDescent="0.3">
+      <c r="X81">
+        <v>7</v>
+      </c>
       <c r="Y81" t="s">
         <v>0</v>
       </c>
@@ -17501,9 +19006,6 @@
       </c>
     </row>
     <row r="82" spans="8:31" x14ac:dyDescent="0.3">
-      <c r="X82">
-        <v>1</v>
-      </c>
       <c r="Y82">
         <v>1</v>
       </c>
@@ -17526,7 +19028,7 @@
     </row>
     <row r="83" spans="8:31" x14ac:dyDescent="0.3">
       <c r="X83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y83">
         <v>1</v>
@@ -17550,7 +19052,7 @@
     </row>
     <row r="84" spans="8:31" x14ac:dyDescent="0.3">
       <c r="X84">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y84">
         <v>1</v>
@@ -17574,7 +19076,7 @@
     </row>
     <row r="85" spans="8:31" x14ac:dyDescent="0.3">
       <c r="X85">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Y85">
         <v>1</v>
@@ -17598,7 +19100,7 @@
     </row>
     <row r="86" spans="8:31" x14ac:dyDescent="0.3">
       <c r="X86">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Y86">
         <v>1</v>
@@ -17622,7 +19124,7 @@
     </row>
     <row r="87" spans="8:31" x14ac:dyDescent="0.3">
       <c r="X87">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y87">
         <v>1</v>
@@ -17646,7 +19148,7 @@
     </row>
     <row r="88" spans="8:31" x14ac:dyDescent="0.3">
       <c r="X88">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Y88">
         <v>1</v>
@@ -17676,7 +19178,7 @@
         <v>0</v>
       </c>
       <c r="X89">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y89">
         <v>1</v>
@@ -17753,7 +19255,8 @@
         <v>0</v>
       </c>
       <c r="X94">
-        <v>1</v>
+        <f>X82/$X$81</f>
+        <v>0</v>
       </c>
       <c r="Y94">
         <f>Y82/$AE82</f>
@@ -17778,176 +19281,183 @@
     </row>
     <row r="95" spans="8:31" x14ac:dyDescent="0.3">
       <c r="X95">
-        <v>2</v>
+        <f t="shared" ref="X95:X101" si="7">X83/$X$81</f>
+        <v>0.14285714285714285</v>
       </c>
       <c r="Y95">
-        <f t="shared" ref="Y95:AC95" si="7">Y83/$AE83</f>
+        <f t="shared" ref="Y95:AC95" si="8">Y83/$AE83</f>
         <v>0.125</v>
       </c>
       <c r="Z95">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.125</v>
       </c>
       <c r="AA95">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.125</v>
       </c>
       <c r="AB95">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.25</v>
       </c>
       <c r="AC95">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.375</v>
       </c>
     </row>
     <row r="96" spans="8:31" x14ac:dyDescent="0.3">
       <c r="X96">
-        <v>3</v>
+        <f t="shared" si="7"/>
+        <v>0.2857142857142857</v>
       </c>
       <c r="Y96">
-        <f t="shared" ref="Y96:AC96" si="8">Y84/$AE84</f>
+        <f t="shared" ref="Y96:AC96" si="9">Y84/$AE84</f>
         <v>0.14285714285714285</v>
       </c>
       <c r="Z96">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.14285714285714285</v>
       </c>
       <c r="AA96">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.14285714285714285</v>
       </c>
       <c r="AB96">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.2857142857142857</v>
       </c>
       <c r="AC96">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="97" spans="8:29" x14ac:dyDescent="0.3">
       <c r="X97">
-        <v>4</v>
+        <f t="shared" si="7"/>
+        <v>0.42857142857142855</v>
       </c>
       <c r="Y97">
-        <f t="shared" ref="Y97:AC97" si="9">Y85/$AE85</f>
+        <f t="shared" ref="Y97:AC97" si="10">Y85/$AE85</f>
         <v>0.16666666666666666</v>
       </c>
       <c r="Z97">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="AA97">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AB97">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="AC97">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="98" spans="8:29" x14ac:dyDescent="0.3">
       <c r="X98">
-        <v>5</v>
+        <f t="shared" si="7"/>
+        <v>0.5714285714285714</v>
       </c>
       <c r="Y98">
-        <f t="shared" ref="Y98:AC98" si="10">Y86/$AE86</f>
+        <f t="shared" ref="Y98:AC98" si="11">Y86/$AE86</f>
         <v>0.2</v>
       </c>
       <c r="Z98">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.2</v>
       </c>
       <c r="AA98">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AB98">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.4</v>
       </c>
       <c r="AC98">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.2</v>
       </c>
     </row>
     <row r="99" spans="8:29" x14ac:dyDescent="0.3">
       <c r="X99">
-        <v>6</v>
+        <f t="shared" si="7"/>
+        <v>0.7142857142857143</v>
       </c>
       <c r="Y99">
-        <f t="shared" ref="Y99:AC99" si="11">Y87/$AE87</f>
+        <f t="shared" ref="Y99:AC99" si="12">Y87/$AE87</f>
         <v>0.25</v>
       </c>
       <c r="Z99">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.25</v>
       </c>
       <c r="AA99">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AB99">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.5</v>
       </c>
       <c r="AC99">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="8:29" x14ac:dyDescent="0.3">
       <c r="X100">
-        <v>7</v>
+        <f t="shared" si="7"/>
+        <v>0.8571428571428571</v>
       </c>
       <c r="Y100">
-        <f t="shared" ref="Y100:AC100" si="12">Y88/$AE88</f>
+        <f t="shared" ref="Y100:AC100" si="13">Y88/$AE88</f>
         <v>0.5</v>
       </c>
       <c r="Z100">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.5</v>
       </c>
       <c r="AA100">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AB100">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AC100">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="8:29" x14ac:dyDescent="0.3">
       <c r="X101">
-        <v>8</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="Y101">
-        <f t="shared" ref="Y101:AC101" si="13">Y89/$AE89</f>
+        <f t="shared" ref="Y101:AC101" si="14">Y89/$AE89</f>
         <v>1</v>
       </c>
       <c r="Z101">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AA101">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AB101">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AC101">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
